--- a/Project Development Phase/Performance Testing/Performance Testing Report.xlsx
+++ b/Project Development Phase/Performance Testing/Performance Testing Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a24fd6277d94b227/Documents/GitHub/IBM-Project-3634-1658585233/Project Development Phase/Performance Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD0FF14-AEF1-4E62-B25E-6D17006DA0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9CD0FF14-AEF1-4E62-B25E-6D17006DA0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B4E966-3C4F-4D4E-B204-294544CE7A24}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{209F302D-D027-3045-82BB-D9422A64EC64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{209F302D-D027-3045-82BB-D9422A64EC64}"/>
   </bookViews>
   <sheets>
     <sheet name="NFT- RA" sheetId="1" r:id="rId1"/>
@@ -648,6 +648,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,24 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,6 +702,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA1AA74-9DAA-9D45-988A-F56D9E254887}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1023,18 +1027,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="13" t="s">
@@ -1075,25 +1079,25 @@
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -1156,13 +1160,13 @@
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.6">
       <c r="D11" s="20" t="s">
@@ -1184,48 +1188,48 @@
     <row r="12" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="33">
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="27" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="33">
+      <c r="D13" s="26">
         <v>2</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="16" t="s">
@@ -1263,13 +1267,13 @@
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="29" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1281,7 +1285,7 @@
       <c r="H16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1292,10 +1296,10 @@
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1310,7 +1314,7 @@
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1376,60 +1380,60 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="23"/>
